--- a/week04/spreadsheet.xlsx
+++ b/week04/spreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -44,11 +44,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,6 +65,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,10 +203,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.129164322770173"/>
-          <c:y val="0.043449272141349"/>
-          <c:w val="0.724357772360773"/>
-          <c:h val="0.86565173908212"/>
+          <c:x val="0.151604044438897"/>
+          <c:y val="0.102069195683613"/>
+          <c:w val="0.705904381475471"/>
+          <c:h val="0.78907553676716"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -232,17 +238,11 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -252,25 +252,21 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>out!$B$2:$B$19</c:f>
+              <c:f>out!$B2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.002</c:v>
                 </c:pt>
@@ -324,6 +320,252 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.011</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.014</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.027</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.018</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.018</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.018</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.037</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.026</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.026</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.024</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -356,17 +598,11 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -376,25 +612,21 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>out!$C$2:$C$19</c:f>
+              <c:f>out!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.001</c:v>
                 </c:pt>
@@ -448,6 +680,252 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.028</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.033</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.032</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.039</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.041</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.045</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.046</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.048</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.051</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.054</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.058</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.062</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.064</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.071</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.072</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.075</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.079</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.084</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.089</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.094</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.095</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.099</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.103</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.118</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.136</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.138</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.144</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.148</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.164</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.171</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.176</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.196</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.203</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.207</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.226</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.234</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.241</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.239</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.258</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.267</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.277</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.295</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.301</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.319</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.327</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.333</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.346</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,17 +958,11 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -500,18 +972,14 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -580,17 +1048,17 @@
         </c:ser>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="42045938"/>
-        <c:axId val="34077133"/>
+        <c:marker val="0"/>
+        <c:axId val="90670326"/>
+        <c:axId val="62276826"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42045938"/>
+        <c:axId val="90670326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +1069,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln>
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -618,35 +1086,37 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34077133"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="62276826"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34077133"/>
+        <c:axId val="62276826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="0">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="b3b3b3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="0">
+          <a:ln>
             <a:solidFill>
               <a:srgbClr val="b3b3b3"/>
             </a:solidFill>
@@ -663,13 +1133,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42045938"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="90670326"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:solidFill>
             <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
@@ -681,7 +1153,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -704,890 +1176,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>out!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>out!$B$2:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.015</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.014</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.014</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.014</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.015</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.014</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.027</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.017</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.018</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.021</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.021</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.037</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.023</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.023</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.024</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>out!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>out!$C$2:$C$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.013</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.015</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.016</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.019</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.021</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.023</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.028</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.033</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.035</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.039</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.041</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.045</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.046</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.051</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.054</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.058</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.062</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.064</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.065</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.071</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.072</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.075</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.079</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.084</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.085</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.089</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.094</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.095</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.099</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.103</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.115</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.118</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.123</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.126</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.136</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.138</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.144</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.148</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.151</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.164</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.171</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.175</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.176</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.196</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.189</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.203</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.207</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.226</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.234</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.241</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.239</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.245</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.254</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.258</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.267</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.277</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.29</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.295</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.301</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.308</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.315</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.319</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.327</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.333</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.346</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.348</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="47730452"/>
-        <c:axId val="30172671"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="47730452"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30172671"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="30172671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="47730452"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
+    <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1605,9 +1194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1615,42 +1204,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2644920" y="0"/>
-        <a:ext cx="5759280" cy="3236760"/>
+        <a:off x="2646000" y="0"/>
+        <a:ext cx="5767920" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="2629440" y="3368160"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1666,11 +1225,11 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="6.01"/>
@@ -2851,7 +2410,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
